--- a/main/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
+++ b/main/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T15:13:23+00:00</t>
+    <t>2024-07-01T15:38:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
